--- a/ServiceGenerated/SDKDesc/en-US/Launcher.json.xlsx
+++ b/ServiceGenerated/SDKDesc/en-US/Launcher.json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ruyi\jade\commons\ServiceGenerated\SDKDesc\en-US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7BEF99-7A44-4032-8FE8-0F830DEB09C9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BB99D7-4671-42FC-8A4D-A1BBA4AA08CC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,103 +25,103 @@
     <t>key</t>
   </si>
   <si>
-    <t>launcher.AppLaunchMode</t>
-  </si>
-  <si>
     <t>Launch mode for the app, Active: focus on the new launched app; Minimized: minimize the new launched app; Background: make the new launched app running on background.</t>
   </si>
   <si>
-    <t>launcher.AppLaunchInfo</t>
-  </si>
-  <si>
     <t>Basic settings provided when launch an app.</t>
   </si>
   <si>
-    <t>launcher.AppLaunchInfo.appId</t>
-  </si>
-  <si>
     <t>The ID for the app to launch, please provide the ID that Ruyi assigned to your app.</t>
   </si>
   <si>
-    <t>launcher.AppLaunchInfo.appPath</t>
-  </si>
-  <si>
     <t>The app path, will be removed soon.</t>
   </si>
   <si>
-    <t>launcher.AppLaunchInfo.allowMultiInstance</t>
-  </si>
-  <si>
     <t>Set to true if multiple instance of the same app are allowd to run at the same time, otherwise false.</t>
   </si>
   <si>
-    <t>launcher.AppLaunchInfo.launchMode</t>
-  </si>
-  <si>
     <t>Set the mode to launch the app.</t>
   </si>
   <si>
-    <t>launcher.AppLaunchInfo.appPriority</t>
-  </si>
-  <si>
     <t>The process priority, will be removed soon.</t>
   </si>
   <si>
-    <t>launcher.LaunchApp</t>
-  </si>
-  <si>
     <t>Launch an app installed.</t>
   </si>
   <si>
-    <t>launcher.LaunchApp.appInfo</t>
-  </si>
-  <si>
     <t>The app info needed to launch the app.</t>
   </si>
   <si>
-    <t>launcher.LaunchApp.responses</t>
-  </si>
-  <si>
     <t>Return true if launch app succeed, otherwise false.</t>
   </si>
   <si>
-    <t>launcher.StopApp</t>
-  </si>
-  <si>
     <t>Stop an app already running.</t>
   </si>
   <si>
-    <t>launcher.StopApp.appId</t>
-  </si>
-  <si>
     <t>The app ID to stop, provide the ID that Ruyi assigned to your app.</t>
   </si>
   <si>
-    <t>launcher.StopApp.responses</t>
-  </si>
-  <si>
     <t>Return true if stop app succeed, otherwise false.</t>
   </si>
   <si>
-    <t>launcher.IsAppRunning</t>
-  </si>
-  <si>
     <t>Check is an given app is running.</t>
   </si>
   <si>
-    <t>launcher.IsAppRunning.appId</t>
-  </si>
-  <si>
     <t>The ID for the app to check if it's running or not, provide the ID that Ruyi assigned to your app.</t>
   </si>
   <si>
-    <t>launcher.IsAppRunning.responses</t>
-  </si>
-  <si>
     <t>Return true if the app is running, otherwise false.</t>
   </si>
   <si>
     <t>en-US</t>
+  </si>
+  <si>
+    <t>launcher_AppLaunchMode</t>
+  </si>
+  <si>
+    <t>launcher_AppLaunchInfo</t>
+  </si>
+  <si>
+    <t>launcher_AppLaunchInfo_appId</t>
+  </si>
+  <si>
+    <t>launcher_AppLaunchInfo_appPath</t>
+  </si>
+  <si>
+    <t>launcher_AppLaunchInfo_allowMultiInstance</t>
+  </si>
+  <si>
+    <t>launcher_AppLaunchInfo_launchMode</t>
+  </si>
+  <si>
+    <t>launcher_AppLaunchInfo_appPriority</t>
+  </si>
+  <si>
+    <t>launcher_LaunchApp</t>
+  </si>
+  <si>
+    <t>launcher_LaunchApp_appInfo</t>
+  </si>
+  <si>
+    <t>launcher_LaunchApp_responses</t>
+  </si>
+  <si>
+    <t>launcher_StopApp</t>
+  </si>
+  <si>
+    <t>launcher_StopApp_appId</t>
+  </si>
+  <si>
+    <t>launcher_StopApp_responses</t>
+  </si>
+  <si>
+    <t>launcher_IsAppRunning</t>
+  </si>
+  <si>
+    <t>launcher_IsAppRunning_appId</t>
+  </si>
+  <si>
+    <t>launcher_IsAppRunning_responses</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1091,135 +1091,135 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
